--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_25.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1515484.381852698</v>
+        <v>1513107.754905332</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>344.0008449616749</v>
+        <v>104.3047449110158</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>2.756603417722914</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +865,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>43.30112502764913</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.9547861996839</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>213.0787404579715</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,16 +1108,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>239.3135884893127</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>43.30112502764913</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>359.0795832874313</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>271.205787565012</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>92.83156789269627</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705016</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110028</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>94.76732804863843</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>60.46574022124238</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>94.91529601901384</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>99.72336853883948</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>55.5207962406042</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2536,7 +2536,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>120.7871326503968</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>83.06560892427764</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892481</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2953,13 +2953,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,19 +2998,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3187,19 +3187,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>57.24347904696276</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>103.1686991936193</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>74.53917159609161</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3670,10 +3670,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>19.91555826188877</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624931</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389243</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S43" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1078.689549231437</v>
+        <v>2051.040280862504</v>
       </c>
       <c r="C2" t="n">
-        <v>709.7270322910251</v>
+        <v>1682.077763922092</v>
       </c>
       <c r="D2" t="n">
-        <v>709.7270322910251</v>
+        <v>1323.812065315341</v>
       </c>
       <c r="E2" t="n">
-        <v>709.7270322910251</v>
+        <v>938.0238127170971</v>
       </c>
       <c r="F2" t="n">
-        <v>702.7815315418217</v>
+        <v>527.0379079274896</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.517185281608</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872912</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923561</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W2" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="X2" t="n">
-        <v>1855.42872127137</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="Y2" t="n">
-        <v>1465.289389295559</v>
+        <v>2437.640120926626</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>593.0223835625332</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>1227.201367341572</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>1861.38035112061</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2193.450786296772</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2440.633520129069</v>
       </c>
       <c r="Q3" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1087.683159487371</v>
+        <v>349.6600800990971</v>
       </c>
       <c r="C4" t="n">
-        <v>918.7469765594642</v>
+        <v>349.6600800990971</v>
       </c>
       <c r="D4" t="n">
-        <v>768.6303371471284</v>
+        <v>349.6600800990971</v>
       </c>
       <c r="E4" t="n">
-        <v>620.7172435647353</v>
+        <v>349.6600800990971</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>202.7701326011867</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1533.862713590079</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1533.862713590079</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1533.862713590079</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>1490.124203461141</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>349.6600800990971</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1078.689549231436</v>
+        <v>1078.689549231435</v>
       </c>
       <c r="C5" t="n">
-        <v>709.7270322910247</v>
+        <v>709.7270322910238</v>
       </c>
       <c r="D5" t="n">
-        <v>351.4613336842742</v>
+        <v>351.4613336842733</v>
       </c>
       <c r="E5" t="n">
-        <v>351.4613336842742</v>
+        <v>351.4613336842733</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>344.5158329350698</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>332.8514866997627</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230816</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740839</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532449</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.42872127137</v>
+        <v>1855.428721271369</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295558</v>
+        <v>1465.289389295557</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143496</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694947</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1087.683159487371</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C7" t="n">
-        <v>918.7469765594642</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="D7" t="n">
-        <v>768.6303371471284</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="E7" t="n">
-        <v>620.7172435647353</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1533.862713590079</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V7" t="n">
-        <v>1533.862713590079</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W7" t="n">
-        <v>1490.124203461141</v>
+        <v>850.6135643676971</v>
       </c>
       <c r="X7" t="n">
-        <v>1490.124203461141</v>
+        <v>622.6240134696798</v>
       </c>
       <c r="Y7" t="n">
-        <v>1269.331624317611</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829027</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="C8" t="n">
-        <v>690.4032258886157</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="D8" t="n">
-        <v>332.1375272818652</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>332.1375272818652</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>325.1920265326617</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816077</v>
       </c>
       <c r="L8" t="n">
         <v>795.7553530872908</v>
@@ -4817,37 +4817,37 @@
         <v>1656.671415230816</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740838</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764995</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926624</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190804</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847233</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.227517577119</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1126.761759316039</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>736.6224273402274</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4878,31 @@
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>238.427330237016</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605188</v>
+        <v>614.5430248380239</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919905</v>
+        <v>909.2465818694955</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.93511215121</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748155</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924317</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800308</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312191</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020474</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693231</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096583</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4993,19 +4993,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1540.721546287993</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1286.037058082106</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>996.6198880451458</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>768.6303371471284</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,10 +5051,10 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1052.829365488567</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C13" t="n">
-        <v>883.8931825606599</v>
+        <v>593.6115863900021</v>
       </c>
       <c r="D13" t="n">
-        <v>733.7765431483241</v>
+        <v>443.4949469776664</v>
       </c>
       <c r="E13" t="n">
-        <v>585.863449565931</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>438.9735020680206</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2227.361618603201</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1972.677130397314</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1683.259960360354</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1455.270409462336</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y13" t="n">
-        <v>1234.477830318806</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5291,19 +5291,19 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,22 +5349,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
         <v>2001.151557821488</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2096.33187019581</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.256643540008</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.572155334121</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.15498529716</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.165434399143</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.3728552556131</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5732,16 +5732,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5753,22 +5753,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5887,16 +5887,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>317.6151975578602</v>
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6184,13 +6184,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,28 +6245,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270402</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6689,28 +6689,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6783,22 +6783,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>198.027470314254</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>484.2179484367897</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>336.3048548543966</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>169.1087555692765</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="38">
@@ -7154,43 +7154,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
         <v>4562.265728852255</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.899304487667</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597601</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>261.8464821474244</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650312</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9333885650312</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.052681478294</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038326</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797726</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910807</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853359</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235163</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258104</v>
+        <v>2171.280006238954</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602302</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396415</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359454</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614369</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179067</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7400,13 +7400,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111716</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7591,7 +7591,7 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S43" t="n">
         <v>2254.869721166297</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,7 +7780,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
         <v>402.7245934908939</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +7991,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8055,31 +8055,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071647</v>
       </c>
       <c r="O3" t="n">
-        <v>114.3555089013356</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.454437538929696</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780643</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3273467878365</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>114.3555089013353</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154995</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>85.96822242532679</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>118.3918499711696</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>117.6820817884488</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23786,7 +23786,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>125.5054897610404</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24424,7 +24424,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194625</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,13 +24841,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,19 +24886,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272871</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,19 +25075,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>110.0033420516651</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>62.35543909864957</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25315,10 +25315,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>65.75554125013225</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25558,16 +25558,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>145.6085800303801</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>125.505489761039</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>914139.3643013805</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013804</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>914139.3643013802</v>
+        <v>914139.3643013801</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>914139.3643013804</v>
+        <v>914139.3643013802</v>
       </c>
     </row>
     <row r="16">
@@ -26314,22 +26314,22 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651772</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="E2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
+        <v>504466.6248062535</v>
+      </c>
+      <c r="H2" t="n">
         <v>504466.6248062536</v>
-      </c>
-      <c r="H2" t="n">
-        <v>504466.6248062537</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
@@ -26338,22 +26338,22 @@
         <v>504466.6248062536</v>
       </c>
       <c r="K2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="N2" t="n">
         <v>504466.6248062538</v>
       </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>504466.6248062537</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.540129233035259e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,40 +26421,40 @@
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316251</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707372</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707331</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707341</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.424496707368</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707361</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26470,10 +26470,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984469</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-826448.1766822122</v>
+        <v>-826448.1766822124</v>
       </c>
       <c r="C6" t="n">
-        <v>288303.6068937074</v>
+        <v>288303.6068937078</v>
       </c>
       <c r="D6" t="n">
-        <v>288303.6068937074</v>
+        <v>288303.6068937073</v>
       </c>
       <c r="E6" t="n">
-        <v>-111038.7711389067</v>
+        <v>-111073.5090643429</v>
       </c>
       <c r="F6" t="n">
-        <v>396446.6704856393</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="G6" t="n">
-        <v>396446.6704856391</v>
+        <v>396411.9325602034</v>
       </c>
       <c r="H6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602037</v>
       </c>
       <c r="I6" t="n">
-        <v>396446.6704856391</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="J6" t="n">
-        <v>228841.4926756566</v>
+        <v>228806.754750221</v>
       </c>
       <c r="K6" t="n">
-        <v>396446.6704856394</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="L6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="M6" t="n">
-        <v>263839.3767567125</v>
+        <v>263804.6388312766</v>
       </c>
       <c r="N6" t="n">
-        <v>396446.6704856392</v>
+        <v>396411.9325602036</v>
       </c>
       <c r="O6" t="n">
-        <v>396446.6704856391</v>
+        <v>396411.9325602035</v>
       </c>
       <c r="P6" t="n">
-        <v>396446.6704856396</v>
+        <v>396411.9325602037</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.064892117539</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175388</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241352</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,13 +26990,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>67.5468578112791</v>
+        <v>307.2429578619382</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.5499966270813</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27585,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.408530361388</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27625,13 +27625,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>186.9212595420276</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>87.93981210443383</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27828,16 +27828,16 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>46.91356563188788</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>243.2218733089419</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>23.65425837604931</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>140.341915207942</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247055</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546889</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>101.5575724195737</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,7 +28065,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>191.4598260725622</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29332,7 +29332,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29487,7 +29487,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>-2.419498242208011e-12</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -29721,7 +29721,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-1.571301715478522e-13</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30435,7 +30435,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31279,7 +31279,7 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
@@ -31297,7 +31297,7 @@
         <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166594</v>
@@ -31312,13 +31312,13 @@
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
@@ -31367,22 +31367,22 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L6" t="n">
         <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31434,7 +31434,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H7" t="n">
         <v>14.97566335231072</v>
@@ -31449,10 +31449,10 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
@@ -31467,13 +31467,13 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U7" t="n">
         <v>0.09187523529024984</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181058</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336176</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491898</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857141</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767378</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730001</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342221</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166591</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190642</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147049</v>
       </c>
       <c r="R8" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745093</v>
       </c>
       <c r="T8" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,34 +31592,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436492</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>189.817847557584</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177241</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040585</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762069</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405672</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378623</v>
       </c>
       <c r="Q9" t="n">
         <v>256.462496416876</v>
@@ -31628,10 +31628,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.318536019979</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000169</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675763</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231071</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335768</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.6942511682318</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227906</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154671</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169136</v>
       </c>
       <c r="Q10" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759582</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523477</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069558</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024981</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31762,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,31 +31829,31 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31865,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31911,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31938,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,31 +32066,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,13 +32102,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33023,7 +33023,7 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
@@ -33035,10 +33035,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>377.6350660745949</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34445,10 +34445,10 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949736</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O3" t="n">
-        <v>449.7801908974585</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>122.9351598697843</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067507</v>
@@ -34945,7 +34945,7 @@
         <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949726</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,7 +35015,7 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313202</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
@@ -35024,10 +35024,10 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961229</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235322</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
@@ -35100,7 +35100,7 @@
         <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
@@ -35109,7 +35109,7 @@
         <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q7" t="n">
         <v>54.881755458054</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225035</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407335</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067505</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457273</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376312</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949724</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637946</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402555</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939893</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,28 +35252,28 @@
         <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313211</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.68036063785</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820402</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928737</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961228</v>
       </c>
       <c r="P9" t="n">
-        <v>364.0350380248676</v>
+        <v>249.6795291235321</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870588</v>
       </c>
       <c r="K10" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.0112915831068</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.6644876295068</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805397</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,22 +35723,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,7 +36361,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
@@ -36683,10 +36683,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295167</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37865,22 +37865,22 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>235.5010321525766</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
